--- a/Assigments/GSS Assignment-1 .xlsx
+++ b/Assigments/GSS Assignment-1 .xlsx
@@ -519,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -564,6 +564,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="&quot;Söhne Mono&quot;"/>
     </font>
   </fonts>
   <fills count="8">
@@ -786,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -845,6 +850,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="7" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="5" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="6" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -1279,7 +1290,10 @@
       <c r="E18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="20">
+        <f>_xlfn.COVARIANCE.P(B2:B13, C2:C13)</f>
+        <v>-42.47916667</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
@@ -1307,7 +1321,10 @@
       <c r="E20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="27">
+        <f>CORREL(B2:B13,C2:C13)</f>
+        <v>-0.4612511701</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
@@ -1330,43 +1347,79 @@
       <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="28">
+        <f t="shared" ref="B22:C22" si="7">B21-B20</f>
+        <v>13</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="29">
+        <f t="shared" ref="B23:C23" si="8">QUARTILE(B2:B13, 1)</f>
+        <v>10.75</v>
+      </c>
+      <c r="C23" s="11">
+        <f t="shared" si="8"/>
+        <v>42.75</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="12">
+        <f t="shared" ref="B24:C24" si="9">MEDIAN(B2:B13)</f>
+        <v>13.5</v>
+      </c>
+      <c r="C24" s="11">
+        <f t="shared" si="9"/>
+        <v>58.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="12">
+        <f t="shared" ref="B25:C25" si="10">QUARTILE(B2:B13,3)</f>
+        <v>16.5</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" si="10"/>
+        <v>78.75</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="30">
+        <f>QUARTILE(B2:B13, 3) - QUARTILE(B2:B13, 1)</f>
+        <v>5.75</v>
+      </c>
+      <c r="C26" s="31">
+        <f>C25 - C23</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="17">
+        <f t="shared" ref="B27:C27" si="11">_xlfn.VAR.S(B2:B13)</f>
+        <v>17.47727273</v>
+      </c>
+      <c r="C27" s="18">
+        <f t="shared" si="11"/>
+        <v>577.5378788</v>
+      </c>
       <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
@@ -1382,8 +1435,14 @@
       <c r="A29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="17">
+        <f t="shared" ref="B29:C29" si="12">STDEVA(B2:B13)</f>
+        <v>4.180582821</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" si="12"/>
+        <v>24.03201778</v>
+      </c>
       <c r="D29" s="4" t="s">
         <v>23</v>
       </c>
@@ -1399,15 +1458,27 @@
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="12">
+        <f t="shared" ref="B31:C31" si="13">SKEW(B2:B13)</f>
+        <v>-0.01287766638</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="13"/>
+        <v>-0.191540125</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="12">
+        <f t="shared" ref="B32:C32" si="14">KURT(B2:B13)</f>
+        <v>-1.183534705</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.401790616</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
